--- a/data/trans_dic/P1409-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1409-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01040780868575199</v>
+        <v>0.00994033018480078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02014352955139169</v>
+        <v>0.02053196466758839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03099078199379292</v>
+        <v>0.03138548930920441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01442071210131301</v>
+        <v>0.01347187006013494</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02275684501738633</v>
+        <v>0.02117151935354016</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0229900321530582</v>
+        <v>0.02275175497524045</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01385843591381121</v>
+        <v>0.01410776920950333</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02409806078506491</v>
+        <v>0.02412444438909337</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02954860328810266</v>
+        <v>0.02957885034577863</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03109819615252846</v>
+        <v>0.03077666962873871</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04847649781321291</v>
+        <v>0.0479865659188889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06680068217439861</v>
+        <v>0.06803384657242867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03904569973153042</v>
+        <v>0.036832520638921</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05051486237523689</v>
+        <v>0.05113150803186098</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04214376467907571</v>
+        <v>0.04210478735916596</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02902843970156547</v>
+        <v>0.02989531082164843</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04329063072849625</v>
+        <v>0.0443557904120454</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04913774961984239</v>
+        <v>0.05015702333153582</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.022532564097117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04662628030860767</v>
+        <v>0.04662628030860766</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.02822490730658095</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01088185336817411</v>
+        <v>0.01020754168162959</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01365909713018741</v>
+        <v>0.01484582489554793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03250042889241337</v>
+        <v>0.03216723301138489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01849313491823067</v>
+        <v>0.01861165207075747</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03209257913584471</v>
+        <v>0.03125557285759246</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02962610966476437</v>
+        <v>0.02925742090408209</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01673248717877445</v>
+        <v>0.01703613620613691</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02582298067851663</v>
+        <v>0.02618824114844156</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03373547263691325</v>
+        <v>0.03397474750215791</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02768172251791473</v>
+        <v>0.027567303181282</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03362008848755573</v>
+        <v>0.0359428316384537</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06619847364654237</v>
+        <v>0.06861741665378526</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04128705083850157</v>
+        <v>0.04138526211887104</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05995694010595946</v>
+        <v>0.05930229011188647</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0485779351696739</v>
+        <v>0.0491094497142348</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03135919674969555</v>
+        <v>0.03085298552498466</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04238179137852797</v>
+        <v>0.04308803654881931</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05400202687193815</v>
+        <v>0.05353859413355949</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.03932910793648389</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05424553580114654</v>
+        <v>0.05424553580114656</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.0190035352884385</v>
@@ -882,7 +882,7 @@
         <v>0.02741500240042046</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.04188381294455217</v>
+        <v>0.04188381294455215</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006419320528358542</v>
+        <v>0.00657349403428584</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008081146399164617</v>
+        <v>0.008597587306908686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01693584476715256</v>
+        <v>0.01789848973679571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01530416008754508</v>
+        <v>0.01398740950210041</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0277057614420081</v>
+        <v>0.02674426029516673</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04213451000849498</v>
+        <v>0.04149884885547967</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01279736246260402</v>
+        <v>0.0128822967848028</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01979163181517054</v>
+        <v>0.01961553805062379</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03271991589189578</v>
+        <v>0.03341562169886836</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02362395122623639</v>
+        <v>0.02296832029465893</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02665609914483136</v>
+        <v>0.02678200352301028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04822143921249452</v>
+        <v>0.04833356818919576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03800430621568493</v>
+        <v>0.03842253858317651</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05614057549679261</v>
+        <v>0.05562167835642503</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06901810698480858</v>
+        <v>0.06798543827370836</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02721256822894256</v>
+        <v>0.02741875471315331</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0370590813084366</v>
+        <v>0.0362034921823076</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05241477351788904</v>
+        <v>0.05450896319124008</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.03208962365205074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03245645924215964</v>
+        <v>0.03245645924215963</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.02991989802007931</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01740786009188842</v>
+        <v>0.01660322832581527</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02252893941750178</v>
+        <v>0.02216623984015628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02268871127980527</v>
+        <v>0.02179926140694967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02072255401849675</v>
+        <v>0.02130710915029521</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02846772800482906</v>
+        <v>0.0294377254478762</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05051326016602544</v>
+        <v>0.05020150543351802</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02111363649981227</v>
+        <v>0.02131539772249904</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02846817659627345</v>
+        <v>0.02777644887548313</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03974048258355741</v>
+        <v>0.03940184729575687</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03907901262044978</v>
+        <v>0.03856475895762962</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04584747446855699</v>
+        <v>0.0460289471191277</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04791737983567559</v>
+        <v>0.04636301553211621</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04279545652895572</v>
+        <v>0.04341253636624318</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05270960420039014</v>
+        <v>0.05382843235579605</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0756999936227154</v>
+        <v>0.07570884964152685</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03649819372379102</v>
+        <v>0.03698595198244758</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04485086555770013</v>
+        <v>0.04498274746300199</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05759009582353258</v>
+        <v>0.05667125634411617</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.0398240914492156</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.04764710036468307</v>
+        <v>0.04764710036468306</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.02314977733220051</v>
@@ -1100,7 +1100,7 @@
         <v>0.03276356610283877</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.04320472712868246</v>
+        <v>0.04320472712868245</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01491709552948997</v>
+        <v>0.01454015969614824</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02041850189370339</v>
+        <v>0.02052567734377058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03132366422865277</v>
+        <v>0.03139640622144587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02153525465828988</v>
+        <v>0.02183268031102076</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03360114364093895</v>
+        <v>0.03327379597781951</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04233177123261193</v>
+        <v>0.04222792475395597</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01982624020628889</v>
+        <v>0.019701698198475</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02873603704342532</v>
+        <v>0.02833518751906267</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03884336123399579</v>
+        <v>0.03876746204680678</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02409318267194955</v>
+        <v>0.02404766709812177</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03196767718547255</v>
+        <v>0.03171602182381973</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04734336112947959</v>
+        <v>0.04752107556135166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03295389072489161</v>
+        <v>0.03315164854182196</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04719236571803469</v>
+        <v>0.04673919134036895</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05442422434849485</v>
+        <v>0.05438116627672087</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02705552090568639</v>
+        <v>0.02707911755402076</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03752083387129256</v>
+        <v>0.03761029370955254</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04852896017608707</v>
+        <v>0.04808480943010211</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7322</v>
+        <v>6993</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13593</v>
+        <v>13855</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21406</v>
+        <v>21678</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10052</v>
+        <v>9391</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15312</v>
+        <v>14245</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16833</v>
+        <v>16659</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19409</v>
+        <v>19758</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>32475</v>
+        <v>32511</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>42045</v>
+        <v>42088</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21877</v>
+        <v>21650</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32712</v>
+        <v>32381</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46140</v>
+        <v>46992</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27217</v>
+        <v>25674</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>33988</v>
+        <v>34403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30857</v>
+        <v>30829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40655</v>
+        <v>41869</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58340</v>
+        <v>59776</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>69918</v>
+        <v>71368</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11077</v>
+        <v>10391</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13965</v>
+        <v>15179</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34045</v>
+        <v>33696</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19007</v>
+        <v>19129</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33470</v>
+        <v>32597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31705</v>
+        <v>31311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>34230</v>
+        <v>34851</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>53333</v>
+        <v>54088</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71442</v>
+        <v>71949</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28179</v>
+        <v>28062</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34374</v>
+        <v>36749</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69344</v>
+        <v>71878</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42434</v>
+        <v>42535</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>62530</v>
+        <v>61847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51987</v>
+        <v>52556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64153</v>
+        <v>63117</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87533</v>
+        <v>88992</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>114360</v>
+        <v>113379</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4863</v>
+        <v>4980</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6138</v>
+        <v>6530</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13553</v>
+        <v>14323</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11894</v>
+        <v>10871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21749</v>
+        <v>20995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34141</v>
+        <v>33625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19641</v>
+        <v>19772</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30569</v>
+        <v>30297</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>52695</v>
+        <v>53816</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17898</v>
+        <v>17401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20247</v>
+        <v>20342</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38588</v>
+        <v>38678</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29536</v>
+        <v>29861</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44071</v>
+        <v>43664</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55924</v>
+        <v>55087</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41766</v>
+        <v>42082</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57240</v>
+        <v>55919</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>84414</v>
+        <v>87787</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16498</v>
+        <v>15736</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21122</v>
+        <v>20782</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22463</v>
+        <v>21583</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21798</v>
+        <v>22413</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29714</v>
+        <v>30726</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>56412</v>
+        <v>56064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>42220</v>
+        <v>42623</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56405</v>
+        <v>55035</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>83727</v>
+        <v>83013</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37037</v>
+        <v>36549</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42985</v>
+        <v>43155</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47441</v>
+        <v>45902</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45017</v>
+        <v>45666</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55017</v>
+        <v>56185</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84540</v>
+        <v>84550</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>72983</v>
+        <v>73959</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>88865</v>
+        <v>89126</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121333</v>
+        <v>119397</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51118</v>
+        <v>49826</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69308</v>
+        <v>69671</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>110526</v>
+        <v>110783</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76534</v>
+        <v>77592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>119101</v>
+        <v>117940</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>157873</v>
+        <v>157486</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>138401</v>
+        <v>137532</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>199396</v>
+        <v>196615</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>281923</v>
+        <v>281372</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82562</v>
+        <v>82406</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>108509</v>
+        <v>107655</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>167052</v>
+        <v>167679</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>117115</v>
+        <v>117818</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>167275</v>
+        <v>165669</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>202971</v>
+        <v>202811</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>188866</v>
+        <v>189031</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>260353</v>
+        <v>260974</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>352221</v>
+        <v>348997</v>
       </c>
     </row>
     <row r="24">
